--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Igf2-Insr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Igf2-Insr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.543659333333332</v>
+        <v>18.94467633333333</v>
       </c>
       <c r="H2">
-        <v>25.630978</v>
+        <v>56.834029</v>
       </c>
       <c r="I2">
-        <v>0.02549662585027493</v>
+        <v>0.03347881112463321</v>
       </c>
       <c r="J2">
-        <v>0.02549662585027493</v>
+        <v>0.03347881112463321</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.840326</v>
+        <v>20.29529466666667</v>
       </c>
       <c r="N2">
-        <v>38.520978</v>
+        <v>60.885884</v>
       </c>
       <c r="O2">
-        <v>0.3393128690704511</v>
+        <v>0.4032332285476398</v>
       </c>
       <c r="P2">
-        <v>0.3393128690704511</v>
+        <v>0.4032332285476398</v>
       </c>
       <c r="Q2">
-        <v>109.7033710729426</v>
+        <v>384.4877885496263</v>
       </c>
       <c r="R2">
-        <v>987.3303396564839</v>
+        <v>3460.390096946636</v>
       </c>
       <c r="S2">
-        <v>0.008651333268872616</v>
+        <v>0.01349976909772249</v>
       </c>
       <c r="T2">
-        <v>0.008651333268872616</v>
+        <v>0.01349976909772249</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.543659333333332</v>
+        <v>18.94467633333333</v>
       </c>
       <c r="H3">
-        <v>25.630978</v>
+        <v>56.834029</v>
       </c>
       <c r="I3">
-        <v>0.02549662585027493</v>
+        <v>0.03347881112463321</v>
       </c>
       <c r="J3">
-        <v>0.02549662585027493</v>
+        <v>0.03347881112463321</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>29.50267</v>
       </c>
       <c r="O3">
-        <v>0.2598749077175229</v>
+        <v>0.1953894087318433</v>
       </c>
       <c r="P3">
-        <v>0.2598749077175228</v>
+        <v>0.1953894087318433</v>
       </c>
       <c r="Q3">
-        <v>84.02025396791777</v>
+        <v>186.3061780397145</v>
       </c>
       <c r="R3">
-        <v>756.18228571126</v>
+        <v>1676.75560235743</v>
       </c>
       <c r="S3">
-        <v>0.006625933289948405</v>
+        <v>0.00654140511068714</v>
       </c>
       <c r="T3">
-        <v>0.006625933289948403</v>
+        <v>0.00654140511068714</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.543659333333332</v>
+        <v>18.94467633333333</v>
       </c>
       <c r="H4">
-        <v>25.630978</v>
+        <v>56.834029</v>
       </c>
       <c r="I4">
-        <v>0.02549662585027493</v>
+        <v>0.03347881112463321</v>
       </c>
       <c r="J4">
-        <v>0.02549662585027493</v>
+        <v>0.03347881112463321</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.513324000000001</v>
+        <v>11.81535133333333</v>
       </c>
       <c r="N4">
-        <v>19.539972</v>
+        <v>35.446054</v>
       </c>
       <c r="O4">
-        <v>0.1721182665942771</v>
+        <v>0.2347510761885954</v>
       </c>
       <c r="P4">
-        <v>0.1721182665942771</v>
+        <v>0.2347510761885954</v>
       </c>
       <c r="Q4">
-        <v>55.647621383624</v>
+        <v>223.8380067746184</v>
       </c>
       <c r="R4">
-        <v>500.828592452616</v>
+        <v>2014.542060971566</v>
       </c>
       <c r="S4">
-        <v>0.004388435045352156</v>
+        <v>0.007859186941022365</v>
       </c>
       <c r="T4">
-        <v>0.004388435045352156</v>
+        <v>0.007859186941022365</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.543659333333332</v>
+        <v>18.94467633333333</v>
       </c>
       <c r="H5">
-        <v>25.630978</v>
+        <v>56.834029</v>
       </c>
       <c r="I5">
-        <v>0.02549662585027493</v>
+        <v>0.03347881112463321</v>
       </c>
       <c r="J5">
-        <v>0.02549662585027493</v>
+        <v>0.03347881112463321</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.654269333333334</v>
+        <v>8.386535</v>
       </c>
       <c r="N5">
-        <v>25.962808</v>
+        <v>25.159605</v>
       </c>
       <c r="O5">
-        <v>0.228693956617749</v>
+        <v>0.1666262865319216</v>
       </c>
       <c r="P5">
-        <v>0.2286939566177489</v>
+        <v>0.1666262865319216</v>
       </c>
       <c r="Q5">
-        <v>73.93912896291377</v>
+        <v>158.8801911331717</v>
       </c>
       <c r="R5">
-        <v>665.4521606662239</v>
+        <v>1429.921720198545</v>
       </c>
       <c r="S5">
-        <v>0.005830924246101751</v>
+        <v>0.005578449975201218</v>
       </c>
       <c r="T5">
-        <v>0.00583092424610175</v>
+        <v>0.005578449975201217</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>816.98375</v>
       </c>
       <c r="I6">
-        <v>0.8127012944845317</v>
+        <v>0.4812547190371557</v>
       </c>
       <c r="J6">
-        <v>0.8127012944845315</v>
+        <v>0.4812547190371557</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.840326</v>
+        <v>20.29529466666667</v>
       </c>
       <c r="N6">
-        <v>38.520978</v>
+        <v>60.885884</v>
       </c>
       <c r="O6">
-        <v>0.3393128690704511</v>
+        <v>0.4032332285476398</v>
       </c>
       <c r="P6">
-        <v>0.3393128690704511</v>
+        <v>0.4032332285476398</v>
       </c>
       <c r="Q6">
-        <v>3496.779228900833</v>
+        <v>5526.975314709445</v>
       </c>
       <c r="R6">
-        <v>31471.0130601075</v>
+        <v>49742.777832385</v>
       </c>
       <c r="S6">
-        <v>0.275760007928816</v>
+        <v>0.1940578941111396</v>
       </c>
       <c r="T6">
-        <v>0.275760007928816</v>
+        <v>0.1940578941111396</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>816.98375</v>
       </c>
       <c r="I7">
-        <v>0.8127012944845317</v>
+        <v>0.4812547190371557</v>
       </c>
       <c r="J7">
-        <v>0.8127012944845315</v>
+        <v>0.4812547190371557</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>29.50267</v>
       </c>
       <c r="O7">
-        <v>0.2598749077175229</v>
+        <v>0.1953894087318433</v>
       </c>
       <c r="P7">
-        <v>0.2598749077175228</v>
+        <v>0.1953894087318433</v>
       </c>
       <c r="Q7">
         <v>2678.133552401389</v>
@@ -883,10 +883,10 @@
         <v>24103.2019716125</v>
       </c>
       <c r="S7">
-        <v>0.211200673906079</v>
+        <v>0.09403207500207922</v>
       </c>
       <c r="T7">
-        <v>0.211200673906079</v>
+        <v>0.0940320750020792</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>816.98375</v>
       </c>
       <c r="I8">
-        <v>0.8127012944845317</v>
+        <v>0.4812547190371557</v>
       </c>
       <c r="J8">
-        <v>0.8127012944845315</v>
+        <v>0.4812547190371557</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.513324000000001</v>
+        <v>11.81535133333333</v>
       </c>
       <c r="N8">
-        <v>19.539972</v>
+        <v>35.446054</v>
       </c>
       <c r="O8">
-        <v>0.1721182665942771</v>
+        <v>0.2347510761885954</v>
       </c>
       <c r="P8">
-        <v>0.1721182665942771</v>
+        <v>0.2347510761885954</v>
       </c>
       <c r="Q8">
-        <v>1773.759955495</v>
+        <v>3217.650013291389</v>
       </c>
       <c r="R8">
-        <v>15963.839599455</v>
+        <v>28958.8501196225</v>
       </c>
       <c r="S8">
-        <v>0.1398807380656027</v>
+        <v>0.1129750632148124</v>
       </c>
       <c r="T8">
-        <v>0.1398807380656027</v>
+        <v>0.1129750632148124</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>816.98375</v>
       </c>
       <c r="I9">
-        <v>0.8127012944845317</v>
+        <v>0.4812547190371557</v>
       </c>
       <c r="J9">
-        <v>0.8127012944845315</v>
+        <v>0.4812547190371557</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.654269333333334</v>
+        <v>8.386535</v>
       </c>
       <c r="N9">
-        <v>25.962808</v>
+        <v>25.159605</v>
       </c>
       <c r="O9">
-        <v>0.228693956617749</v>
+        <v>0.1666262865319216</v>
       </c>
       <c r="P9">
-        <v>0.2286939566177489</v>
+        <v>0.1666262865319216</v>
       </c>
       <c r="Q9">
-        <v>2356.799137818889</v>
+        <v>2283.887604602084</v>
       </c>
       <c r="R9">
-        <v>21211.19224037</v>
+        <v>20554.98844141875</v>
       </c>
       <c r="S9">
-        <v>0.1858598745840339</v>
+        <v>0.08018968670912453</v>
       </c>
       <c r="T9">
-        <v>0.1858598745840338</v>
+        <v>0.08018968670912452</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>51.56189866666667</v>
+        <v>271.928284</v>
       </c>
       <c r="H10">
-        <v>154.685696</v>
+        <v>815.784852</v>
       </c>
       <c r="I10">
-        <v>0.1538748663941489</v>
+        <v>0.4805484928482698</v>
       </c>
       <c r="J10">
-        <v>0.1538748663941489</v>
+        <v>0.4805484928482698</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.840326</v>
+        <v>20.29529466666667</v>
       </c>
       <c r="N10">
-        <v>38.520978</v>
+        <v>60.885884</v>
       </c>
       <c r="O10">
-        <v>0.3393128690704511</v>
+        <v>0.4032332285476398</v>
       </c>
       <c r="P10">
-        <v>0.3393128690704511</v>
+        <v>0.4032332285476398</v>
       </c>
       <c r="Q10">
-        <v>662.0715880589654</v>
+        <v>5518.864651981019</v>
       </c>
       <c r="R10">
-        <v>5958.644292530688</v>
+        <v>49669.78186782917</v>
       </c>
       <c r="S10">
-        <v>0.052211722394031</v>
+        <v>0.1937731202449102</v>
       </c>
       <c r="T10">
-        <v>0.052211722394031</v>
+        <v>0.1937731202449102</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>51.56189866666667</v>
+        <v>271.928284</v>
       </c>
       <c r="H11">
-        <v>154.685696</v>
+        <v>815.784852</v>
       </c>
       <c r="I11">
-        <v>0.1538748663941489</v>
+        <v>0.4805484928482698</v>
       </c>
       <c r="J11">
-        <v>0.1538748663941489</v>
+        <v>0.4805484928482698</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>29.50267</v>
       </c>
       <c r="O11">
-        <v>0.2598749077175229</v>
+        <v>0.1953894087318433</v>
       </c>
       <c r="P11">
-        <v>0.2598749077175228</v>
+        <v>0.1953894087318433</v>
       </c>
       <c r="Q11">
-        <v>507.0712269787023</v>
+        <v>2674.203475506094</v>
       </c>
       <c r="R11">
-        <v>4563.641042808321</v>
+        <v>24067.83127955484</v>
       </c>
       <c r="S11">
-        <v>0.03998821670422561</v>
+        <v>0.09389408588460185</v>
       </c>
       <c r="T11">
-        <v>0.03998821670422559</v>
+        <v>0.09389408588460185</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>51.56189866666667</v>
+        <v>271.928284</v>
       </c>
       <c r="H12">
-        <v>154.685696</v>
+        <v>815.784852</v>
       </c>
       <c r="I12">
-        <v>0.1538748663941489</v>
+        <v>0.4805484928482698</v>
       </c>
       <c r="J12">
-        <v>0.1538748663941489</v>
+        <v>0.4805484928482698</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.513324000000001</v>
+        <v>11.81535133333333</v>
       </c>
       <c r="N12">
-        <v>19.539972</v>
+        <v>35.446054</v>
       </c>
       <c r="O12">
-        <v>0.1721182665942771</v>
+        <v>0.2347510761885954</v>
       </c>
       <c r="P12">
-        <v>0.1721182665942771</v>
+        <v>0.2347510761885954</v>
       </c>
       <c r="Q12">
-        <v>335.8393520711681</v>
+        <v>3212.928212930445</v>
       </c>
       <c r="R12">
-        <v>3022.554168640513</v>
+        <v>28916.35391637401</v>
       </c>
       <c r="S12">
-        <v>0.02648467527618689</v>
+        <v>0.1128092758569389</v>
       </c>
       <c r="T12">
-        <v>0.02648467527618688</v>
+        <v>0.1128092758569389</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>51.56189866666667</v>
+        <v>271.928284</v>
       </c>
       <c r="H13">
-        <v>154.685696</v>
+        <v>815.784852</v>
       </c>
       <c r="I13">
-        <v>0.1538748663941489</v>
+        <v>0.4805484928482698</v>
       </c>
       <c r="J13">
-        <v>0.1538748663941489</v>
+        <v>0.4805484928482698</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.654269333333334</v>
+        <v>8.386535</v>
       </c>
       <c r="N13">
-        <v>25.962808</v>
+        <v>25.159605</v>
       </c>
       <c r="O13">
-        <v>0.228693956617749</v>
+        <v>0.1666262865319216</v>
       </c>
       <c r="P13">
-        <v>0.2286939566177489</v>
+        <v>0.1666262865319216</v>
       </c>
       <c r="Q13">
-        <v>446.2305583993743</v>
+        <v>2280.53607125594</v>
       </c>
       <c r="R13">
-        <v>4016.075025594368</v>
+        <v>20524.82464130346</v>
       </c>
       <c r="S13">
-        <v>0.03519025201970541</v>
+        <v>0.08007201086181889</v>
       </c>
       <c r="T13">
-        <v>0.0351902520197054</v>
+        <v>0.08007201086181887</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>2.656328333333333</v>
+        <v>2.669764666666667</v>
       </c>
       <c r="H14">
-        <v>7.968985</v>
+        <v>8.009294000000001</v>
       </c>
       <c r="I14">
-        <v>0.007927213271044639</v>
+        <v>0.004717976989941326</v>
       </c>
       <c r="J14">
-        <v>0.007927213271044639</v>
+        <v>0.004717976989941326</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.840326</v>
+        <v>20.29529466666667</v>
       </c>
       <c r="N14">
-        <v>38.520978</v>
+        <v>60.885884</v>
       </c>
       <c r="O14">
-        <v>0.3393128690704511</v>
+        <v>0.4032332285476398</v>
       </c>
       <c r="P14">
-        <v>0.3393128690704511</v>
+        <v>0.4032332285476398</v>
       </c>
       <c r="Q14">
-        <v>34.10812176303666</v>
+        <v>54.18366060065512</v>
       </c>
       <c r="R14">
-        <v>306.97309586733</v>
+        <v>487.652945405896</v>
       </c>
       <c r="S14">
-        <v>0.002689805478731512</v>
+        <v>0.001902445093867516</v>
       </c>
       <c r="T14">
-        <v>0.002689805478731512</v>
+        <v>0.001902445093867516</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>2.656328333333333</v>
+        <v>2.669764666666667</v>
       </c>
       <c r="H15">
-        <v>7.968985</v>
+        <v>8.009294000000001</v>
       </c>
       <c r="I15">
-        <v>0.007927213271044639</v>
+        <v>0.004717976989941326</v>
       </c>
       <c r="J15">
-        <v>0.007927213271044639</v>
+        <v>0.004717976989941326</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>29.50267</v>
       </c>
       <c r="O15">
-        <v>0.2598749077175229</v>
+        <v>0.1953894087318433</v>
       </c>
       <c r="P15">
-        <v>0.2598749077175228</v>
+        <v>0.1953894087318433</v>
       </c>
       <c r="Q15">
-        <v>26.12292607666111</v>
+        <v>26.25506197944223</v>
       </c>
       <c r="R15">
-        <v>235.10633468995</v>
+        <v>236.29555781498</v>
       </c>
       <c r="S15">
-        <v>0.002060083817269848</v>
+        <v>0.0009218427344750774</v>
       </c>
       <c r="T15">
-        <v>0.002060083817269848</v>
+        <v>0.0009218427344750774</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>2.656328333333333</v>
+        <v>2.669764666666667</v>
       </c>
       <c r="H16">
-        <v>7.968985</v>
+        <v>8.009294000000001</v>
       </c>
       <c r="I16">
-        <v>0.007927213271044639</v>
+        <v>0.004717976989941326</v>
       </c>
       <c r="J16">
-        <v>0.007927213271044639</v>
+        <v>0.004717976989941326</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.513324000000001</v>
+        <v>11.81535133333333</v>
       </c>
       <c r="N16">
-        <v>19.539972</v>
+        <v>35.446054</v>
       </c>
       <c r="O16">
-        <v>0.1721182665942771</v>
+        <v>0.2347510761885954</v>
       </c>
       <c r="P16">
-        <v>0.1721182665942771</v>
+        <v>0.2347510761885954</v>
       </c>
       <c r="Q16">
-        <v>17.30152708538</v>
+        <v>31.54420751398622</v>
       </c>
       <c r="R16">
-        <v>155.71374376842</v>
+        <v>283.897867625876</v>
       </c>
       <c r="S16">
-        <v>0.001364418207135352</v>
+        <v>0.001107550175821756</v>
       </c>
       <c r="T16">
-        <v>0.001364418207135352</v>
+        <v>0.001107550175821756</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>2.656328333333333</v>
+        <v>2.669764666666667</v>
       </c>
       <c r="H17">
-        <v>7.968985</v>
+        <v>8.009294000000001</v>
       </c>
       <c r="I17">
-        <v>0.007927213271044639</v>
+        <v>0.004717976989941326</v>
       </c>
       <c r="J17">
-        <v>0.007927213271044639</v>
+        <v>0.004717976989941326</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.654269333333334</v>
+        <v>8.386535</v>
       </c>
       <c r="N17">
-        <v>25.962808</v>
+        <v>25.159605</v>
       </c>
       <c r="O17">
-        <v>0.228693956617749</v>
+        <v>0.1666262865319216</v>
       </c>
       <c r="P17">
-        <v>0.2286939566177489</v>
+        <v>0.1666262865319216</v>
       </c>
       <c r="Q17">
-        <v>22.98858083443111</v>
+        <v>22.39007481876334</v>
       </c>
       <c r="R17">
-        <v>206.89722750988</v>
+        <v>201.51067336887</v>
       </c>
       <c r="S17">
-        <v>0.001812905767907927</v>
+        <v>0.0007861389857769765</v>
       </c>
       <c r="T17">
-        <v>0.001812905767907926</v>
+        <v>0.0007861389857769764</v>
       </c>
     </row>
   </sheetData>
